--- a/Blik/PKS/Bedrijfsregels PKS.xlsx
+++ b/Blik/PKS/Bedrijfsregels PKS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="11055" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20730" windowHeight="11055" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Riskplaza" sheetId="4" r:id="rId3"/>
     <sheet name="EFISC" sheetId="6" r:id="rId4"/>
     <sheet name="Organen" sheetId="5" r:id="rId5"/>
+    <sheet name="Onderzoeken" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="872">
   <si>
     <t>De schema-eigenaar geeft de NVWA inzicht in de werking van het systeem.</t>
   </si>
@@ -2612,6 +2613,33 @@
   </si>
   <si>
     <t>[Orgaan,]</t>
+  </si>
+  <si>
+    <t>[Onderzoek]</t>
+  </si>
+  <si>
+    <t>Onderzoek</t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>onderzoeker</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>Onderzoeksobject</t>
+  </si>
+  <si>
+    <t>PKS Acceptatie</t>
+  </si>
+  <si>
+    <t>NVWA</t>
   </si>
 </sst>
 </file>
@@ -2884,43 +2912,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2989,6 +2981,42 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14668,2941 +14696,2941 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="14" style="32" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="32"/>
-    <col min="10" max="10" width="13.7109375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="32" customWidth="1"/>
+    <col min="1" max="2" width="10.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="14" style="20" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="20"/>
+    <col min="10" max="10" width="13.7109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="20" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="32"/>
+    <col min="13" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="20" t="s">
         <v>858</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="20" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="20" t="s">
         <v>492</v>
       </c>
       <c r="D2" t="s">
         <v>492</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="20" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="28">
         <v>1</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="29">
         <v>42720</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="28">
         <v>2170</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="33">
         <v>1</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="34">
         <v>42788</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="28">
         <v>1</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="37">
         <v>42796</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43">
+      <c r="A6" s="31">
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="33">
         <v>1</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="34">
         <v>42700</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="33">
         <v>9000</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="28">
         <v>1</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="34">
         <v>42560</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="33">
         <v>1</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="37">
         <v>42925</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="31">
         <v>3520</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="28">
         <v>1</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="34">
         <v>42688</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="45">
+      <c r="E10" s="31"/>
+      <c r="F10" s="33">
         <v>1</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="37">
         <v>42763</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="28">
         <v>1</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="34">
         <v>42715</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="33">
         <v>2170</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
+      <c r="A12" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="33">
         <v>1</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="37">
         <v>42634</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="28">
         <v>1</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="34">
         <v>42582</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="33">
         <v>28217</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+      <c r="A14" s="35">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="33">
         <v>1</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="37">
         <v>42759</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="28">
         <v>1</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="34">
         <v>42625</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47">
+      <c r="A16" s="35">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="33">
         <v>1</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="37">
         <v>42916</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="28">
         <v>1</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="34">
         <v>42916</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47">
+      <c r="A18" s="35">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="33">
         <v>1</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="37">
         <v>42767</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="28">
         <v>1</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="34">
         <v>42767</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
+      <c r="A20" s="35">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="33">
         <v>1</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="37">
         <v>42767</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="31">
         <v>21079</v>
       </c>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="34">
         <v>42767</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="33">
         <v>2030</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47">
+      <c r="A22" s="35">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="33">
         <v>1</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="37">
         <v>42767</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="31">
         <v>8870</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="K22" s="42" t="s">
+      <c r="K22" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="28">
         <v>1</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="34">
         <v>42767</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47">
+      <c r="A24" s="35">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="43" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="33">
         <v>1</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="37">
         <v>42437</v>
       </c>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="31">
         <v>1130</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="K24" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="28">
         <v>1</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="34">
         <v>42707</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
+      <c r="A26" s="35">
         <v>25</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="43" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="33">
         <v>1</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="37">
         <v>42687</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="J26" s="43" t="s">
+      <c r="J26" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="K26" s="42" t="s">
+      <c r="K26" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="28">
         <v>1</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="34">
         <v>42660</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="K27" s="42" t="s">
+      <c r="K27" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47">
+      <c r="A28" s="35">
         <v>27</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="43" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="33">
         <v>1</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="37">
         <v>42755</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="K28" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L28" s="35">
+      <c r="L28" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="28">
         <v>1</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="34">
         <v>42627</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
+      <c r="A30" s="35">
         <v>29</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="43" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="33">
         <v>1</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="37">
         <v>42538</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="J30" s="43" t="s">
+      <c r="J30" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="K30" s="42" t="s">
+      <c r="K30" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L30" s="35">
+      <c r="L30" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="28">
         <v>1</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="34">
         <v>42792</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="K31" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47">
+      <c r="A32" s="35">
         <v>31</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="43" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="33">
         <v>1</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="37">
         <v>42791</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="J32" s="43" t="s">
+      <c r="J32" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="28">
         <v>1</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="34">
         <v>42677</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="33">
         <v>9800</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="K33" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47">
+      <c r="A34" s="35">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="43" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="33">
         <v>1</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G34" s="37">
         <v>42899</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="J34" s="43" t="s">
+      <c r="J34" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="K34" s="42" t="s">
+      <c r="K34" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L34" s="35">
+      <c r="L34" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="28">
         <v>1</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="34">
         <v>42559</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="K35" s="42" t="s">
+      <c r="K35" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L35" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47">
+      <c r="A36" s="35">
         <v>35</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="43" t="s">
+      <c r="C36" s="36"/>
+      <c r="D36" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="33">
         <v>1</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="37">
         <v>42749</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="J36" s="43" t="s">
+      <c r="J36" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="K36" s="42" t="s">
+      <c r="K36" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L36" s="35">
+      <c r="L36" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43">
+      <c r="A37" s="31">
         <v>36</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="45" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="28">
         <v>1</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="34">
         <v>42913</v>
       </c>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="K37" s="42" t="s">
+      <c r="K37" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L37" s="35">
+      <c r="L37" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
+      <c r="A38" s="35">
         <v>37</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="43" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="33">
         <v>1</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G38" s="37">
         <v>42913</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="I38" s="43" t="s">
+      <c r="I38" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="J38" s="43" t="s">
+      <c r="J38" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43">
+      <c r="A39" s="31">
         <v>38</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="45" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="28">
         <v>1</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="34">
         <v>42765</v>
       </c>
-      <c r="H39" s="45" t="s">
+      <c r="H39" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="J39" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="K39" s="42" t="s">
+      <c r="K39" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L39" s="35">
+      <c r="L39" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47">
+      <c r="A40" s="35">
         <v>39</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="43" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="33">
         <v>1</v>
       </c>
-      <c r="G40" s="49">
+      <c r="G40" s="37">
         <v>42934</v>
       </c>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="J40" s="43" t="s">
+      <c r="J40" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="K40" s="42" t="s">
+      <c r="K40" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L40" s="35">
+      <c r="L40" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="43">
+      <c r="A41" s="31">
         <v>40</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="28">
         <v>1</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="34">
         <v>42603</v>
       </c>
-      <c r="H41" s="45" t="s">
+      <c r="H41" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="K41" s="42" t="s">
+      <c r="K41" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L41" s="35">
+      <c r="L41" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47">
+      <c r="A42" s="35">
         <v>41</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="43" t="s">
+      <c r="C42" s="36"/>
+      <c r="D42" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="33">
         <v>1</v>
       </c>
-      <c r="G42" s="49">
+      <c r="G42" s="37">
         <v>42815</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="31">
         <v>31180</v>
       </c>
-      <c r="J42" s="43" t="s">
+      <c r="J42" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="K42" s="42" t="s">
+      <c r="K42" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L42" s="35">
+      <c r="L42" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43">
+      <c r="A43" s="31">
         <v>42</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="45" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="28">
         <v>1</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="34">
         <v>42685</v>
       </c>
-      <c r="H43" s="45" t="s">
+      <c r="H43" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="J43" s="45" t="s">
+      <c r="J43" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="K43" s="42" t="s">
+      <c r="K43" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L43" s="35">
+      <c r="L43" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47">
+      <c r="A44" s="35">
         <v>43</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="43" t="s">
+      <c r="C44" s="36"/>
+      <c r="D44" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="45">
+      <c r="E44" s="31"/>
+      <c r="F44" s="33">
         <v>1</v>
       </c>
-      <c r="G44" s="49">
+      <c r="G44" s="37">
         <v>42749</v>
       </c>
-      <c r="H44" s="43" t="s">
+      <c r="H44" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="31">
         <v>48429</v>
       </c>
-      <c r="J44" s="43" t="s">
+      <c r="J44" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="K44" s="42" t="s">
+      <c r="K44" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L44" s="35">
+      <c r="L44" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47">
+      <c r="A45" s="35">
         <v>45</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="43" t="s">
+      <c r="C45" s="36"/>
+      <c r="D45" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="28">
         <v>1</v>
       </c>
-      <c r="G45" s="49">
+      <c r="G45" s="37">
         <v>42047</v>
       </c>
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="I45" s="43" t="s">
+      <c r="I45" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="J45" s="43" t="s">
+      <c r="J45" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="K45" s="42" t="s">
+      <c r="K45" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L45" s="35">
+      <c r="L45" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="43">
+      <c r="A46" s="31">
         <v>46</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="45" t="s">
+      <c r="C46" s="32"/>
+      <c r="D46" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E46" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="33">
         <v>1</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="34">
         <v>42811</v>
       </c>
-      <c r="H46" s="45" t="s">
+      <c r="H46" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J46" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="K46" s="42" t="s">
+      <c r="K46" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L46" s="35">
+      <c r="L46" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47">
+      <c r="A47" s="35">
         <v>47</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="43" t="s">
+      <c r="C47" s="36"/>
+      <c r="D47" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F47" s="28">
         <v>1</v>
       </c>
-      <c r="G47" s="49">
+      <c r="G47" s="37">
         <v>42783</v>
       </c>
-      <c r="H47" s="43" t="s">
+      <c r="H47" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="I47" s="43" t="s">
+      <c r="I47" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="J47" s="43" t="s">
+      <c r="J47" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="K47" s="42" t="s">
+      <c r="K47" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L47" s="35">
+      <c r="L47" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="43">
+      <c r="A48" s="31">
         <v>48</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="45" t="s">
+      <c r="C48" s="32"/>
+      <c r="D48" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="E48" s="45" t="s">
+      <c r="E48" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="33">
         <v>1</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="34">
         <v>42747</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J48" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="K48" s="42" t="s">
+      <c r="K48" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L48" s="35">
+      <c r="L48" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47">
+      <c r="A49" s="35">
         <v>49</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="43" t="s">
+      <c r="C49" s="36"/>
+      <c r="D49" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="F49" s="40">
+      <c r="F49" s="28">
         <v>1</v>
       </c>
-      <c r="G49" s="49">
+      <c r="G49" s="37">
         <v>42747</v>
       </c>
-      <c r="H49" s="43" t="s">
+      <c r="H49" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="I49" s="43" t="s">
+      <c r="I49" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="J49" s="43" t="s">
+      <c r="J49" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="K49" s="42" t="s">
+      <c r="K49" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L49" s="35">
+      <c r="L49" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="43">
+      <c r="A50" s="31">
         <v>50</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="45" t="s">
+      <c r="C50" s="32"/>
+      <c r="D50" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="33">
         <v>1</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="34">
         <v>42747</v>
       </c>
-      <c r="H50" s="45" t="s">
+      <c r="H50" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="I50" s="45" t="s">
+      <c r="I50" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="J50" s="45" t="s">
+      <c r="J50" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="K50" s="42" t="s">
+      <c r="K50" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L50" s="35">
+      <c r="L50" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47">
+      <c r="A51" s="35">
         <v>51</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="43" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="28">
         <v>1</v>
       </c>
-      <c r="G51" s="49">
+      <c r="G51" s="37">
         <v>42646</v>
       </c>
-      <c r="H51" s="43" t="s">
+      <c r="H51" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="I51" s="43" t="s">
+      <c r="I51" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="J51" s="43" t="s">
+      <c r="J51" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="K51" s="42" t="s">
+      <c r="K51" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L51" s="35">
+      <c r="L51" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="43">
+      <c r="A52" s="31">
         <v>52</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="45" t="s">
+      <c r="C52" s="32"/>
+      <c r="D52" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="33">
         <v>1</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="34">
         <v>42722</v>
       </c>
-      <c r="H52" s="45" t="s">
+      <c r="H52" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="I52" s="45" t="s">
+      <c r="I52" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="J52" s="45" t="s">
+      <c r="J52" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="K52" s="42" t="s">
+      <c r="K52" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L52" s="35">
+      <c r="L52" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47">
+      <c r="A53" s="35">
         <v>53</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="43" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="F53" s="40">
+      <c r="F53" s="28">
         <v>1</v>
       </c>
-      <c r="G53" s="49">
+      <c r="G53" s="37">
         <v>42758</v>
       </c>
-      <c r="H53" s="43" t="s">
+      <c r="H53" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="I53" s="43" t="s">
+      <c r="I53" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="J53" s="43" t="s">
+      <c r="J53" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="K53" s="42" t="s">
+      <c r="K53" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L53" s="35">
+      <c r="L53" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43">
+      <c r="A54" s="31">
         <v>54</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E54" s="45" t="s">
+      <c r="E54" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="33">
         <v>1</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="34">
         <v>42911</v>
       </c>
-      <c r="H54" s="45" t="s">
+      <c r="H54" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="I54" s="45" t="s">
+      <c r="I54" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="J54" s="45" t="s">
+      <c r="J54" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="K54" s="42" t="s">
+      <c r="K54" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L54" s="35">
+      <c r="L54" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="47">
+      <c r="A55" s="35">
         <v>55</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="43" t="s">
+      <c r="C55" s="36"/>
+      <c r="D55" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="F55" s="40">
+      <c r="F55" s="28">
         <v>1</v>
       </c>
-      <c r="G55" s="49">
+      <c r="G55" s="37">
         <v>42715</v>
       </c>
-      <c r="H55" s="43" t="s">
+      <c r="H55" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="I55" s="43" t="s">
+      <c r="I55" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="J55" s="43" t="s">
+      <c r="J55" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="K55" s="42" t="s">
+      <c r="K55" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L55" s="35">
+      <c r="L55" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="43">
+      <c r="A56" s="31">
         <v>56</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="45" t="s">
+      <c r="C56" s="32"/>
+      <c r="D56" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="33">
         <v>1</v>
       </c>
-      <c r="G56" s="46">
+      <c r="G56" s="34">
         <v>42715</v>
       </c>
-      <c r="H56" s="45" t="s">
+      <c r="H56" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="I56" s="45" t="s">
+      <c r="I56" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="J56" s="45" t="s">
+      <c r="J56" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="K56" s="42" t="s">
+      <c r="K56" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L56" s="35">
+      <c r="L56" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47">
+      <c r="A57" s="35">
         <v>57</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="43" t="s">
+      <c r="C57" s="36"/>
+      <c r="D57" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="F57" s="40">
+      <c r="F57" s="28">
         <v>1</v>
       </c>
-      <c r="G57" s="49">
+      <c r="G57" s="37">
         <v>42684</v>
       </c>
-      <c r="H57" s="43" t="s">
+      <c r="H57" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="I57" s="43" t="s">
+      <c r="I57" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="J57" s="43" t="s">
+      <c r="J57" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="K57" s="42" t="s">
+      <c r="K57" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L57" s="35">
+      <c r="L57" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="43">
+      <c r="A58" s="31">
         <v>58</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45" t="s">
+      <c r="C58" s="32"/>
+      <c r="D58" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E58" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="33">
         <v>1</v>
       </c>
-      <c r="G58" s="46">
+      <c r="G58" s="34">
         <v>42749</v>
       </c>
-      <c r="H58" s="45" t="s">
+      <c r="H58" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="I58" s="45">
+      <c r="I58" s="33">
         <v>48429</v>
       </c>
-      <c r="J58" s="45" t="s">
+      <c r="J58" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="K58" s="42" t="s">
+      <c r="K58" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L58" s="35">
+      <c r="L58" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="47">
+      <c r="A59" s="35">
         <v>59</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="43" t="s">
+      <c r="C59" s="36"/>
+      <c r="D59" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="F59" s="40">
+      <c r="F59" s="28">
         <v>1</v>
       </c>
-      <c r="G59" s="49">
+      <c r="G59" s="37">
         <v>42967</v>
       </c>
-      <c r="H59" s="43" t="s">
+      <c r="H59" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="I59" s="43" t="s">
+      <c r="I59" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="J59" s="43" t="s">
+      <c r="J59" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="K59" s="42" t="s">
+      <c r="K59" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L59" s="35">
+      <c r="L59" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="43">
+      <c r="A60" s="31">
         <v>60</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="45" t="s">
+      <c r="C60" s="32"/>
+      <c r="D60" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="33">
         <v>1</v>
       </c>
-      <c r="G60" s="46">
+      <c r="G60" s="34">
         <v>42876</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="H60" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I60" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="J60" s="45" t="s">
+      <c r="J60" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L60" s="35">
+      <c r="L60" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="47">
+      <c r="A61" s="35">
         <v>61</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="43" t="s">
+      <c r="C61" s="36"/>
+      <c r="D61" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E61" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="F61" s="40">
+      <c r="F61" s="28">
         <v>1</v>
       </c>
-      <c r="G61" s="49">
+      <c r="G61" s="37">
         <v>42876</v>
       </c>
-      <c r="H61" s="43" t="s">
+      <c r="H61" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="I61" s="43" t="s">
+      <c r="I61" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="J61" s="43" t="s">
+      <c r="J61" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="K61" s="42" t="s">
+      <c r="K61" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L61" s="35">
+      <c r="L61" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="43">
+      <c r="A62" s="31">
         <v>62</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="45" t="s">
+      <c r="C62" s="32"/>
+      <c r="D62" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="33">
         <v>1</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G62" s="34">
         <v>42915</v>
       </c>
-      <c r="H62" s="45" t="s">
+      <c r="H62" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="I62" s="45" t="s">
+      <c r="I62" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="J62" s="45" t="s">
+      <c r="J62" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="K62" s="42" t="s">
+      <c r="K62" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L62" s="35">
+      <c r="L62" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="47">
+      <c r="A63" s="35">
         <v>63</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="43" t="s">
+      <c r="C63" s="36"/>
+      <c r="D63" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="F63" s="40">
+      <c r="F63" s="28">
         <v>1</v>
       </c>
-      <c r="G63" s="49">
+      <c r="G63" s="37">
         <v>42749</v>
       </c>
-      <c r="H63" s="43" t="s">
+      <c r="H63" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I63" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="J63" s="43" t="s">
+      <c r="J63" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="K63" s="42" t="s">
+      <c r="K63" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L63" s="35">
+      <c r="L63" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="43">
+      <c r="A64" s="31">
         <v>64</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="45" t="s">
+      <c r="C64" s="32"/>
+      <c r="D64" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="33">
         <v>1</v>
       </c>
-      <c r="G64" s="46">
+      <c r="G64" s="34">
         <v>43093</v>
       </c>
-      <c r="H64" s="45" t="s">
+      <c r="H64" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="I64" s="45">
+      <c r="I64" s="33">
         <v>45663</v>
       </c>
-      <c r="J64" s="45" t="s">
+      <c r="J64" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="K64" s="42" t="s">
+      <c r="K64" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L64" s="35">
+      <c r="L64" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="47">
+      <c r="A65" s="35">
         <v>65</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="43" t="s">
+      <c r="C65" s="36"/>
+      <c r="D65" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="F65" s="40">
+      <c r="F65" s="28">
         <v>1</v>
       </c>
-      <c r="G65" s="49">
+      <c r="G65" s="37">
         <v>42651</v>
       </c>
-      <c r="H65" s="43" t="s">
+      <c r="H65" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="J65" s="43" t="s">
+      <c r="J65" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="K65" s="42" t="s">
+      <c r="K65" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L65" s="35">
+      <c r="L65" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="43">
+      <c r="A66" s="31">
         <v>66</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="45" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="33">
         <v>1</v>
       </c>
-      <c r="G66" s="46">
+      <c r="G66" s="34">
         <v>42655</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="J66" s="45" t="s">
+      <c r="J66" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="K66" s="42" t="s">
+      <c r="K66" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L66" s="35">
+      <c r="L66" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="47">
+      <c r="A67" s="35">
         <v>67</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="43" t="s">
+      <c r="C67" s="36"/>
+      <c r="D67" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="E67" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="F67" s="40">
+      <c r="F67" s="28">
         <v>1</v>
       </c>
-      <c r="G67" s="49">
+      <c r="G67" s="37">
         <v>42778</v>
       </c>
-      <c r="H67" s="43" t="s">
+      <c r="H67" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="I67" s="43" t="s">
+      <c r="I67" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="J67" s="43" t="s">
+      <c r="J67" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="K67" s="42" t="s">
+      <c r="K67" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L67" s="35">
+      <c r="L67" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="43">
+      <c r="A68" s="31">
         <v>68</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="45" t="s">
+      <c r="C68" s="32"/>
+      <c r="D68" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="E68" s="45" t="s">
+      <c r="E68" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="33">
         <v>1</v>
       </c>
-      <c r="G68" s="46">
+      <c r="G68" s="34">
         <v>42778</v>
       </c>
-      <c r="H68" s="45" t="s">
+      <c r="H68" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="I68" s="45" t="s">
+      <c r="I68" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="J68" s="45" t="s">
+      <c r="J68" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="K68" s="42" t="s">
+      <c r="K68" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L68" s="35">
+      <c r="L68" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="47">
+      <c r="A69" s="35">
         <v>69</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="43" t="s">
+      <c r="C69" s="36"/>
+      <c r="D69" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="F69" s="40">
+      <c r="F69" s="28">
         <v>1</v>
       </c>
-      <c r="G69" s="49">
+      <c r="G69" s="37">
         <v>42770</v>
       </c>
-      <c r="H69" s="43" t="s">
+      <c r="H69" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="I69" s="43" t="s">
+      <c r="I69" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="J69" s="43" t="s">
+      <c r="J69" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="K69" s="42" t="s">
+      <c r="K69" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L69" s="35">
+      <c r="L69" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="43">
+      <c r="A70" s="31">
         <v>70</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="45" t="s">
+      <c r="C70" s="32"/>
+      <c r="D70" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="F70" s="45">
+      <c r="F70" s="33">
         <v>1</v>
       </c>
-      <c r="G70" s="46">
+      <c r="G70" s="34">
         <v>42560</v>
       </c>
-      <c r="H70" s="45" t="s">
+      <c r="H70" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="I70" s="45" t="s">
+      <c r="I70" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="J70" s="45" t="s">
+      <c r="J70" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="K70" s="42" t="s">
+      <c r="K70" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L70" s="35">
+      <c r="L70" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="47">
+      <c r="A71" s="35">
         <v>71</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="43" t="s">
+      <c r="C71" s="36"/>
+      <c r="D71" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="F71" s="40">
+      <c r="F71" s="28">
         <v>1</v>
       </c>
-      <c r="G71" s="49">
+      <c r="G71" s="37">
         <v>42560</v>
       </c>
-      <c r="H71" s="43" t="s">
+      <c r="H71" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="I71" s="43" t="s">
+      <c r="I71" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="J71" s="43" t="s">
+      <c r="J71" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="K71" s="42" t="s">
+      <c r="K71" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L71" s="35">
+      <c r="L71" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="43">
+      <c r="A72" s="31">
         <v>72</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="45" t="s">
+      <c r="C72" s="32"/>
+      <c r="D72" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="E72" s="45" t="s">
+      <c r="E72" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F72" s="33">
         <v>1</v>
       </c>
-      <c r="G72" s="46">
+      <c r="G72" s="34">
         <v>42526</v>
       </c>
-      <c r="H72" s="45" t="s">
+      <c r="H72" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="I72" s="45" t="s">
+      <c r="I72" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="J72" s="45" t="s">
+      <c r="J72" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="K72" s="42" t="s">
+      <c r="K72" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L72" s="35">
+      <c r="L72" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="47">
+      <c r="A73" s="35">
         <v>73</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="43" t="s">
+      <c r="C73" s="36"/>
+      <c r="D73" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="F73" s="40">
+      <c r="F73" s="28">
         <v>1</v>
       </c>
-      <c r="G73" s="49">
+      <c r="G73" s="37">
         <v>42751</v>
       </c>
-      <c r="H73" s="43" t="s">
+      <c r="H73" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="I73" s="43" t="s">
+      <c r="I73" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="J73" s="43" t="s">
+      <c r="J73" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="K73" s="42" t="s">
+      <c r="K73" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L73" s="35">
+      <c r="L73" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="43">
+      <c r="A74" s="31">
         <v>74</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="45" t="s">
+      <c r="C74" s="32"/>
+      <c r="D74" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="E74" s="45" t="s">
+      <c r="E74" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="F74" s="45">
+      <c r="F74" s="33">
         <v>1</v>
       </c>
-      <c r="G74" s="46">
+      <c r="G74" s="34">
         <v>42924</v>
       </c>
-      <c r="H74" s="45" t="s">
+      <c r="H74" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="I74" s="45" t="s">
+      <c r="I74" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="J74" s="45" t="s">
+      <c r="J74" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="K74" s="42" t="s">
+      <c r="K74" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L74" s="35">
+      <c r="L74" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="47">
+      <c r="A75" s="35">
         <v>75</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="43" t="s">
+      <c r="C75" s="36"/>
+      <c r="D75" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="E75" s="43" t="s">
+      <c r="E75" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F75" s="40">
+      <c r="F75" s="28">
         <v>1</v>
       </c>
-      <c r="G75" s="49">
+      <c r="G75" s="37">
         <v>42924</v>
       </c>
-      <c r="H75" s="43" t="s">
+      <c r="H75" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="I75" s="43" t="s">
+      <c r="I75" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="J75" s="43" t="s">
+      <c r="J75" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="K75" s="42" t="s">
+      <c r="K75" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L75" s="35">
+      <c r="L75" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="43">
+      <c r="A76" s="31">
         <v>76</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45" t="s">
+      <c r="C76" s="32"/>
+      <c r="D76" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="E76" s="45" t="s">
+      <c r="E76" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="F76" s="45">
+      <c r="F76" s="33">
         <v>1</v>
       </c>
-      <c r="G76" s="46">
+      <c r="G76" s="34">
         <v>42924</v>
       </c>
-      <c r="H76" s="45" t="s">
+      <c r="H76" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="I76" s="45" t="s">
+      <c r="I76" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="J76" s="45" t="s">
+      <c r="J76" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="K76" s="42" t="s">
+      <c r="K76" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L76" s="35">
+      <c r="L76" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="47">
+      <c r="A77" s="35">
         <v>77</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="43" t="s">
+      <c r="C77" s="36"/>
+      <c r="D77" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="F77" s="40">
+      <c r="F77" s="28">
         <v>1</v>
       </c>
-      <c r="G77" s="49">
+      <c r="G77" s="37">
         <v>42924</v>
       </c>
-      <c r="H77" s="43" t="s">
+      <c r="H77" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="I77" s="43" t="s">
+      <c r="I77" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="J77" s="43" t="s">
+      <c r="J77" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="K77" s="42" t="s">
+      <c r="K77" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L77" s="35">
+      <c r="L77" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="50">
+      <c r="A78" s="38">
         <v>78</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="52" t="s">
+      <c r="C78" s="39"/>
+      <c r="D78" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="E78" s="52" t="s">
+      <c r="E78" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="33">
         <v>1</v>
       </c>
-      <c r="G78" s="53">
+      <c r="G78" s="41">
         <v>42834</v>
       </c>
-      <c r="H78" s="52" t="s">
+      <c r="H78" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="I78" s="52" t="s">
+      <c r="I78" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="J78" s="52" t="s">
+      <c r="J78" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="K78" s="42" t="s">
+      <c r="K78" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L78" s="35">
+      <c r="L78" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="47">
+      <c r="A79" s="35">
         <v>79</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="43" t="s">
+      <c r="C79" s="36"/>
+      <c r="D79" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E79" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="F79" s="40">
+      <c r="F79" s="28">
         <v>1</v>
       </c>
-      <c r="G79" s="49">
+      <c r="G79" s="37">
         <v>42769</v>
       </c>
-      <c r="H79" s="43" t="s">
+      <c r="H79" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="I79" s="43" t="s">
+      <c r="I79" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="J79" s="43" t="s">
+      <c r="J79" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="K79" s="42" t="s">
+      <c r="K79" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L79" s="35">
+      <c r="L79" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="43">
+      <c r="A80" s="31">
         <v>80</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="45" t="s">
+      <c r="C80" s="32"/>
+      <c r="D80" s="33" t="s">
         <v>474</v>
       </c>
-      <c r="E80" s="45" t="s">
+      <c r="E80" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="F80" s="45">
+      <c r="F80" s="33">
         <v>1</v>
       </c>
-      <c r="G80" s="46">
+      <c r="G80" s="34">
         <v>42867</v>
       </c>
-      <c r="H80" s="45" t="s">
+      <c r="H80" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="I80" s="45" t="s">
+      <c r="I80" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="J80" s="45" t="s">
+      <c r="J80" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="K80" s="42" t="s">
+      <c r="K80" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L80" s="35">
+      <c r="L80" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="47">
+      <c r="A81" s="35">
         <v>81</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="43" t="s">
+      <c r="C81" s="36"/>
+      <c r="D81" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="E81" s="43" t="s">
+      <c r="E81" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="F81" s="40">
+      <c r="F81" s="28">
         <v>1</v>
       </c>
-      <c r="G81" s="49">
+      <c r="G81" s="37">
         <v>42799</v>
       </c>
-      <c r="H81" s="43" t="s">
+      <c r="H81" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="I81" s="43" t="s">
+      <c r="I81" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="J81" s="43" t="s">
+      <c r="J81" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="K81" s="42" t="s">
+      <c r="K81" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L81" s="35">
+      <c r="L81" s="23">
         <v>42548</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="43">
+      <c r="A82" s="31">
         <v>82</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C82" s="44"/>
-      <c r="D82" s="45" t="s">
+      <c r="C82" s="32"/>
+      <c r="D82" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="E82" s="45" t="s">
+      <c r="E82" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="F82" s="45">
+      <c r="F82" s="33">
         <v>1</v>
       </c>
-      <c r="G82" s="46">
+      <c r="G82" s="34">
         <v>42688</v>
       </c>
-      <c r="H82" s="45" t="s">
+      <c r="H82" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="I82" s="45" t="s">
+      <c r="I82" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="J82" s="45" t="s">
+      <c r="J82" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="K82" s="42" t="s">
+      <c r="K82" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="L82" s="35">
+      <c r="L82" s="23">
         <v>42548</v>
       </c>
     </row>
@@ -17616,7 +17644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -17628,108 +17656,108 @@
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
     <col min="7" max="7" width="86.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="18" customWidth="1"/>
     <col min="9" max="10" width="12.85546875" style="14" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="28"/>
+    <col min="12" max="12" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="50" t="s">
         <v>515</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="50" t="s">
         <v>516</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="50" t="s">
         <v>518</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="52" t="s">
         <v>522</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="27"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="53"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="32"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="14" t="s">
         <v>858</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="22" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="20" t="s">
         <v>490</v>
       </c>
       <c r="B4" t="s">
         <v>492</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="32" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="32"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="L4" s="32"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="20" t="s">
         <v>765</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -17750,22 +17778,22 @@
       <c r="G5" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="14">
         <v>5</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="23">
         <v>42548</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="24" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="20" t="s">
         <v>766</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -17786,20 +17814,20 @@
       <c r="G6" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="14">
         <v>5</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="23">
         <v>42548</v>
       </c>
-      <c r="L6" s="32"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="20" t="s">
         <v>767</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -17820,20 +17848,20 @@
       <c r="G7" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="14">
         <v>5</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="23">
         <v>42548</v>
       </c>
-      <c r="L7" s="32"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="20" t="s">
         <v>768</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -17854,20 +17882,20 @@
       <c r="G8" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="14">
         <v>5</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="23">
         <v>42548</v>
       </c>
-      <c r="L8" s="32"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="20" t="s">
         <v>769</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -17888,20 +17916,20 @@
       <c r="G9" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="14">
         <v>5</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="23">
         <v>42548</v>
       </c>
-      <c r="L9" s="32"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="20" t="s">
         <v>770</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -17922,20 +17950,20 @@
       <c r="G10" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="14">
         <v>5</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="23">
         <v>42548</v>
       </c>
-      <c r="L10" s="32"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="20" t="s">
         <v>771</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -17956,20 +17984,20 @@
       <c r="G11" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="14">
         <v>5</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="23">
         <v>42548</v>
       </c>
-      <c r="L11" s="32"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="20" t="s">
         <v>772</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -17990,20 +18018,20 @@
       <c r="G12" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="14">
         <v>5</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="23">
         <v>42548</v>
       </c>
-      <c r="L12" s="32"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="20" t="s">
         <v>773</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -18024,20 +18052,20 @@
       <c r="G13" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="H13" s="29"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="14">
         <v>5</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="23">
         <v>42548</v>
       </c>
-      <c r="L13" s="32"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="20" t="s">
         <v>774</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -18058,20 +18086,20 @@
       <c r="G14" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="14">
         <v>5</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="23">
         <v>42548</v>
       </c>
-      <c r="L14" s="32"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="20" t="s">
         <v>775</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -18092,20 +18120,20 @@
       <c r="G15" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="14">
         <v>5</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="23">
         <v>42548</v>
       </c>
-      <c r="L15" s="32"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="20" t="s">
         <v>776</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -18126,20 +18154,20 @@
       <c r="G16" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="14">
         <v>5</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="23">
         <v>42548</v>
       </c>
-      <c r="L16" s="32"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="20" t="s">
         <v>777</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -18160,20 +18188,20 @@
       <c r="G17" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="14">
         <v>5</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="23">
         <v>42548</v>
       </c>
-      <c r="L17" s="32"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="20" t="s">
         <v>778</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -18194,20 +18222,20 @@
       <c r="G18" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="H18" s="29"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="14">
         <v>5</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="23">
         <v>42548</v>
       </c>
-      <c r="L18" s="32"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="20" t="s">
         <v>779</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -18228,20 +18256,20 @@
       <c r="G19" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="H19" s="29"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="14">
         <v>5</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="23">
         <v>42548</v>
       </c>
-      <c r="L19" s="32"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="20" t="s">
         <v>780</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -18262,20 +18290,20 @@
       <c r="G20" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="H20" s="29"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="14">
         <v>5</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="23">
         <v>42548</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="20" t="s">
         <v>781</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -18296,20 +18324,20 @@
       <c r="G21" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="14">
         <v>5</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="23">
         <v>42548</v>
       </c>
-      <c r="L21" s="32"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="20" t="s">
         <v>782</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -18330,20 +18358,20 @@
       <c r="G22" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="H22" s="29"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="14">
         <v>5</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="23">
         <v>42548</v>
       </c>
-      <c r="L22" s="32"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="20" t="s">
         <v>783</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -18364,20 +18392,20 @@
       <c r="G23" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="14">
         <v>5</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="23">
         <v>42548</v>
       </c>
-      <c r="L23" s="32"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="20" t="s">
         <v>784</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -18398,20 +18426,20 @@
       <c r="G24" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="H24" s="29"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="14">
         <v>5</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="23">
         <v>42548</v>
       </c>
-      <c r="L24" s="32"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="20" t="s">
         <v>785</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -18432,20 +18460,20 @@
       <c r="G25" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="H25" s="29"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="14">
         <v>5</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="23">
         <v>42548</v>
       </c>
-      <c r="L25" s="32"/>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="20" t="s">
         <v>786</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -18466,20 +18494,20 @@
       <c r="G26" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="H26" s="29"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="14">
         <v>5</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="23">
         <v>42548</v>
       </c>
-      <c r="L26" s="32"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="20" t="s">
         <v>787</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -18500,20 +18528,20 @@
       <c r="G27" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="H27" s="29"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="14">
         <v>5</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="23">
         <v>42548</v>
       </c>
-      <c r="L27" s="32"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="20" t="s">
         <v>788</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -18534,20 +18562,20 @@
       <c r="G28" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="H28" s="29"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="14">
         <v>5</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="23">
         <v>42548</v>
       </c>
-      <c r="L28" s="32"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="20" t="s">
         <v>789</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -18568,20 +18596,20 @@
       <c r="G29" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="H29" s="29"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="14">
         <v>5</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="23">
         <v>42548</v>
       </c>
-      <c r="L29" s="32"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="20" t="s">
         <v>790</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -18602,20 +18630,20 @@
       <c r="G30" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="H30" s="29"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="14">
         <v>5</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="23">
         <v>42548</v>
       </c>
-      <c r="L30" s="32"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="20" t="s">
         <v>791</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -18636,20 +18664,20 @@
       <c r="G31" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="H31" s="29"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="14">
         <v>5</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="23">
         <v>42548</v>
       </c>
-      <c r="L31" s="32"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="20" t="s">
         <v>792</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -18670,20 +18698,20 @@
       <c r="G32" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="H32" s="29"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="14">
         <v>5</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="23">
         <v>42548</v>
       </c>
-      <c r="L32" s="32"/>
+      <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="20" t="s">
         <v>793</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -18704,20 +18732,20 @@
       <c r="G33" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="H33" s="29"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="14">
         <v>5</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="23">
         <v>42548</v>
       </c>
-      <c r="L33" s="32"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="20" t="s">
         <v>794</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -18738,20 +18766,20 @@
       <c r="G34" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="H34" s="29"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="14">
         <v>5</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="23">
         <v>42548</v>
       </c>
-      <c r="L34" s="32"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="20" t="s">
         <v>795</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -18772,20 +18800,20 @@
       <c r="G35" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H35" s="29"/>
+      <c r="H35" s="19"/>
       <c r="I35" s="14">
         <v>5</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="23">
         <v>42548</v>
       </c>
-      <c r="L35" s="32"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="20" t="s">
         <v>796</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -18806,20 +18834,20 @@
       <c r="G36" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="H36" s="29"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="14">
         <v>5</v>
       </c>
       <c r="J36" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="23">
         <v>42548</v>
       </c>
-      <c r="L36" s="32"/>
+      <c r="L36" s="20"/>
     </row>
     <row r="37" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="20" t="s">
         <v>797</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -18840,20 +18868,20 @@
       <c r="G37" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="H37" s="29"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="14">
         <v>5</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="23">
         <v>42548</v>
       </c>
-      <c r="L37" s="32"/>
+      <c r="L37" s="20"/>
     </row>
     <row r="38" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="20" t="s">
         <v>798</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -18874,20 +18902,20 @@
       <c r="G38" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="H38" s="29"/>
+      <c r="H38" s="19"/>
       <c r="I38" s="14">
         <v>5</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="23">
         <v>42548</v>
       </c>
-      <c r="L38" s="32"/>
+      <c r="L38" s="20"/>
     </row>
     <row r="39" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="20" t="s">
         <v>799</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -18908,20 +18936,20 @@
       <c r="G39" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="H39" s="29"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="14">
         <v>5</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K39" s="35">
+      <c r="K39" s="23">
         <v>42548</v>
       </c>
-      <c r="L39" s="32"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="20" t="s">
         <v>800</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -18942,20 +18970,20 @@
       <c r="G40" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="H40" s="29"/>
+      <c r="H40" s="19"/>
       <c r="I40" s="14">
         <v>5</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="23">
         <v>42548</v>
       </c>
-      <c r="L40" s="32"/>
+      <c r="L40" s="20"/>
     </row>
     <row r="41" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="20" t="s">
         <v>801</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -18976,20 +19004,20 @@
       <c r="G41" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="H41" s="29"/>
+      <c r="H41" s="19"/>
       <c r="I41" s="14">
         <v>5</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K41" s="35">
+      <c r="K41" s="23">
         <v>42548</v>
       </c>
-      <c r="L41" s="32"/>
+      <c r="L41" s="20"/>
     </row>
     <row r="42" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="20" t="s">
         <v>802</v>
       </c>
       <c r="B42" s="15" t="s">
@@ -19010,20 +19038,20 @@
       <c r="G42" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="H42" s="29"/>
+      <c r="H42" s="19"/>
       <c r="I42" s="14">
         <v>5</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K42" s="35">
+      <c r="K42" s="23">
         <v>42548</v>
       </c>
-      <c r="L42" s="32"/>
+      <c r="L42" s="20"/>
     </row>
     <row r="43" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="20" t="s">
         <v>803</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -19044,20 +19072,20 @@
       <c r="G43" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="H43" s="29"/>
+      <c r="H43" s="19"/>
       <c r="I43" s="14">
         <v>5</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K43" s="35">
+      <c r="K43" s="23">
         <v>42548</v>
       </c>
-      <c r="L43" s="32"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="20" t="s">
         <v>804</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -19078,20 +19106,20 @@
       <c r="G44" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="H44" s="29"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="14">
         <v>5</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K44" s="35">
+      <c r="K44" s="23">
         <v>42548</v>
       </c>
-      <c r="L44" s="32"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="20" t="s">
         <v>805</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -19112,20 +19140,20 @@
       <c r="G45" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="H45" s="29"/>
+      <c r="H45" s="19"/>
       <c r="I45" s="14">
         <v>5</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K45" s="35">
+      <c r="K45" s="23">
         <v>42548</v>
       </c>
-      <c r="L45" s="32"/>
+      <c r="L45" s="20"/>
     </row>
     <row r="46" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="20" t="s">
         <v>806</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -19146,20 +19174,20 @@
       <c r="G46" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="H46" s="29"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="14">
         <v>5</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K46" s="35">
+      <c r="K46" s="23">
         <v>42548</v>
       </c>
-      <c r="L46" s="32"/>
+      <c r="L46" s="20"/>
     </row>
     <row r="47" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="20" t="s">
         <v>807</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -19180,20 +19208,20 @@
       <c r="G47" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="H47" s="29"/>
+      <c r="H47" s="19"/>
       <c r="I47" s="14">
         <v>5</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K47" s="35">
+      <c r="K47" s="23">
         <v>42548</v>
       </c>
-      <c r="L47" s="32"/>
+      <c r="L47" s="20"/>
     </row>
     <row r="48" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="20" t="s">
         <v>808</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -19214,20 +19242,20 @@
       <c r="G48" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="H48" s="29"/>
+      <c r="H48" s="19"/>
       <c r="I48" s="14">
         <v>5</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K48" s="35">
+      <c r="K48" s="23">
         <v>42548</v>
       </c>
-      <c r="L48" s="32"/>
+      <c r="L48" s="20"/>
     </row>
     <row r="49" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="20" t="s">
         <v>809</v>
       </c>
       <c r="B49" s="15" t="s">
@@ -19248,20 +19276,20 @@
       <c r="G49" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="H49" s="29"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="14">
         <v>5</v>
       </c>
       <c r="J49" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K49" s="35">
+      <c r="K49" s="23">
         <v>42548</v>
       </c>
-      <c r="L49" s="32"/>
+      <c r="L49" s="20"/>
     </row>
     <row r="50" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="20" t="s">
         <v>810</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -19282,20 +19310,20 @@
       <c r="G50" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="H50" s="29"/>
+      <c r="H50" s="19"/>
       <c r="I50" s="14">
         <v>5</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K50" s="35">
+      <c r="K50" s="23">
         <v>42548</v>
       </c>
-      <c r="L50" s="32"/>
+      <c r="L50" s="20"/>
     </row>
     <row r="51" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="20" t="s">
         <v>811</v>
       </c>
       <c r="B51" s="15" t="s">
@@ -19316,76 +19344,76 @@
       <c r="G51" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="H51" s="29"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="14">
         <v>5</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K51" s="35">
+      <c r="K51" s="23">
         <v>42548</v>
       </c>
-      <c r="L51" s="32"/>
+      <c r="L51" s="20"/>
     </row>
     <row r="52" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="44" t="s">
         <v>659</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="46">
         <v>42923</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="44" t="s">
         <v>525</v>
       </c>
       <c r="G52" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="H52" s="30"/>
+      <c r="H52" s="48"/>
       <c r="I52" s="14">
         <v>5</v>
       </c>
       <c r="J52" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K52" s="35">
+      <c r="K52" s="23">
         <v>42548</v>
       </c>
-      <c r="L52" s="32"/>
+      <c r="L52" s="20"/>
     </row>
     <row r="53" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="23"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="H53" s="31"/>
+      <c r="H53" s="49"/>
       <c r="I53" s="14">
         <v>5</v>
       </c>
       <c r="J53" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K53" s="35">
+      <c r="K53" s="23">
         <v>42548</v>
       </c>
-      <c r="L53" s="32"/>
+      <c r="L53" s="20"/>
     </row>
     <row r="54" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="20" t="s">
         <v>813</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -19406,20 +19434,20 @@
       <c r="G54" s="14" t="s">
         <v>662</v>
       </c>
-      <c r="H54" s="29"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="14">
         <v>5</v>
       </c>
       <c r="J54" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K54" s="35">
+      <c r="K54" s="23">
         <v>42548</v>
       </c>
-      <c r="L54" s="32"/>
+      <c r="L54" s="20"/>
     </row>
     <row r="55" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="20" t="s">
         <v>814</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -19440,20 +19468,20 @@
       <c r="G55" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="H55" s="29"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="14">
         <v>5</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K55" s="35">
+      <c r="K55" s="23">
         <v>42548</v>
       </c>
-      <c r="L55" s="32"/>
+      <c r="L55" s="20"/>
     </row>
     <row r="56" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="20" t="s">
         <v>815</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -19474,20 +19502,20 @@
       <c r="G56" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="H56" s="29"/>
+      <c r="H56" s="19"/>
       <c r="I56" s="14">
         <v>5</v>
       </c>
       <c r="J56" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K56" s="35">
+      <c r="K56" s="23">
         <v>42548</v>
       </c>
-      <c r="L56" s="32"/>
+      <c r="L56" s="20"/>
     </row>
     <row r="57" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="20" t="s">
         <v>816</v>
       </c>
       <c r="B57" s="15" t="s">
@@ -19508,20 +19536,20 @@
       <c r="G57" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="H57" s="29"/>
+      <c r="H57" s="19"/>
       <c r="I57" s="14">
         <v>5</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K57" s="35">
+      <c r="K57" s="23">
         <v>42548</v>
       </c>
-      <c r="L57" s="32"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="20" t="s">
         <v>817</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -19542,20 +19570,20 @@
       <c r="G58" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="H58" s="29"/>
+      <c r="H58" s="19"/>
       <c r="I58" s="14">
         <v>5</v>
       </c>
       <c r="J58" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K58" s="35">
+      <c r="K58" s="23">
         <v>42548</v>
       </c>
-      <c r="L58" s="32"/>
+      <c r="L58" s="20"/>
     </row>
     <row r="59" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="20" t="s">
         <v>818</v>
       </c>
       <c r="B59" s="15" t="s">
@@ -19576,20 +19604,20 @@
       <c r="G59" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="H59" s="29"/>
+      <c r="H59" s="19"/>
       <c r="I59" s="14">
         <v>5</v>
       </c>
       <c r="J59" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K59" s="35">
+      <c r="K59" s="23">
         <v>42548</v>
       </c>
-      <c r="L59" s="32"/>
+      <c r="L59" s="20"/>
     </row>
     <row r="60" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="20" t="s">
         <v>819</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -19610,20 +19638,20 @@
       <c r="G60" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="H60" s="29"/>
+      <c r="H60" s="19"/>
       <c r="I60" s="14">
         <v>5</v>
       </c>
       <c r="J60" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K60" s="35">
+      <c r="K60" s="23">
         <v>42548</v>
       </c>
-      <c r="L60" s="32"/>
+      <c r="L60" s="20"/>
     </row>
     <row r="61" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="20" t="s">
         <v>820</v>
       </c>
       <c r="B61" s="15" t="s">
@@ -19644,20 +19672,20 @@
       <c r="G61" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="H61" s="29"/>
+      <c r="H61" s="19"/>
       <c r="I61" s="14">
         <v>5</v>
       </c>
       <c r="J61" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K61" s="35">
+      <c r="K61" s="23">
         <v>42548</v>
       </c>
-      <c r="L61" s="32"/>
+      <c r="L61" s="20"/>
     </row>
     <row r="62" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="20" t="s">
         <v>821</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -19678,20 +19706,20 @@
       <c r="G62" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="H62" s="29"/>
+      <c r="H62" s="19"/>
       <c r="I62" s="14">
         <v>5</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K62" s="35">
+      <c r="K62" s="23">
         <v>42548</v>
       </c>
-      <c r="L62" s="32"/>
+      <c r="L62" s="20"/>
     </row>
     <row r="63" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B63" s="15" t="s">
@@ -19712,20 +19740,20 @@
       <c r="G63" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="H63" s="29"/>
+      <c r="H63" s="19"/>
       <c r="I63" s="14">
         <v>5</v>
       </c>
       <c r="J63" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K63" s="35">
+      <c r="K63" s="23">
         <v>42548</v>
       </c>
-      <c r="L63" s="32"/>
+      <c r="L63" s="20"/>
     </row>
     <row r="64" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="20" t="s">
         <v>823</v>
       </c>
       <c r="B64" s="15" t="s">
@@ -19746,20 +19774,20 @@
       <c r="G64" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="H64" s="29"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="14">
         <v>5</v>
       </c>
       <c r="J64" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K64" s="35">
+      <c r="K64" s="23">
         <v>42548</v>
       </c>
-      <c r="L64" s="32"/>
+      <c r="L64" s="20"/>
     </row>
     <row r="65" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="20" t="s">
         <v>824</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -19780,20 +19808,20 @@
       <c r="G65" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="H65" s="29"/>
+      <c r="H65" s="19"/>
       <c r="I65" s="14">
         <v>5</v>
       </c>
       <c r="J65" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K65" s="35">
+      <c r="K65" s="23">
         <v>42548</v>
       </c>
-      <c r="L65" s="32"/>
+      <c r="L65" s="20"/>
     </row>
     <row r="66" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="20" t="s">
         <v>825</v>
       </c>
       <c r="B66" s="15" t="s">
@@ -19814,20 +19842,20 @@
       <c r="G66" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="H66" s="29"/>
+      <c r="H66" s="19"/>
       <c r="I66" s="14">
         <v>5</v>
       </c>
       <c r="J66" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K66" s="35">
+      <c r="K66" s="23">
         <v>42548</v>
       </c>
-      <c r="L66" s="32"/>
+      <c r="L66" s="20"/>
     </row>
     <row r="67" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="20" t="s">
         <v>826</v>
       </c>
       <c r="B67" s="15" t="s">
@@ -19848,20 +19876,20 @@
       <c r="G67" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="H67" s="29"/>
+      <c r="H67" s="19"/>
       <c r="I67" s="14">
         <v>5</v>
       </c>
       <c r="J67" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K67" s="35">
+      <c r="K67" s="23">
         <v>42548</v>
       </c>
-      <c r="L67" s="32"/>
+      <c r="L67" s="20"/>
     </row>
     <row r="68" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="20" t="s">
         <v>827</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -19882,20 +19910,20 @@
       <c r="G68" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="H68" s="29"/>
+      <c r="H68" s="19"/>
       <c r="I68" s="14">
         <v>5</v>
       </c>
       <c r="J68" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K68" s="35">
+      <c r="K68" s="23">
         <v>42548</v>
       </c>
-      <c r="L68" s="32"/>
+      <c r="L68" s="20"/>
     </row>
     <row r="69" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="20" t="s">
         <v>828</v>
       </c>
       <c r="B69" s="15" t="s">
@@ -19916,20 +19944,20 @@
       <c r="G69" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="H69" s="29"/>
+      <c r="H69" s="19"/>
       <c r="I69" s="14">
         <v>5</v>
       </c>
       <c r="J69" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K69" s="35">
+      <c r="K69" s="23">
         <v>42548</v>
       </c>
-      <c r="L69" s="32"/>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="20" t="s">
         <v>829</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -19950,20 +19978,20 @@
       <c r="G70" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="H70" s="29"/>
+      <c r="H70" s="19"/>
       <c r="I70" s="14">
         <v>5</v>
       </c>
       <c r="J70" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K70" s="35">
+      <c r="K70" s="23">
         <v>42548</v>
       </c>
-      <c r="L70" s="32"/>
+      <c r="L70" s="20"/>
     </row>
     <row r="71" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="20" t="s">
         <v>830</v>
       </c>
       <c r="B71" s="15" t="s">
@@ -19984,20 +20012,20 @@
       <c r="G71" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="H71" s="29"/>
+      <c r="H71" s="19"/>
       <c r="I71" s="14">
         <v>5</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K71" s="35">
+      <c r="K71" s="23">
         <v>42548</v>
       </c>
-      <c r="L71" s="32"/>
+      <c r="L71" s="20"/>
     </row>
     <row r="72" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="20" t="s">
         <v>831</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -20018,76 +20046,76 @@
       <c r="G72" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="H72" s="29"/>
+      <c r="H72" s="19"/>
       <c r="I72" s="14">
         <v>5</v>
       </c>
       <c r="J72" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K72" s="35">
+      <c r="K72" s="23">
         <v>42548</v>
       </c>
-      <c r="L72" s="32"/>
+      <c r="L72" s="20"/>
     </row>
     <row r="73" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="20" t="s">
         <v>832</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="42" t="s">
         <v>711</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="44" t="s">
         <v>712</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="46">
         <v>42931</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F73" s="44" t="s">
         <v>525</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="H73" s="30"/>
+      <c r="H73" s="48"/>
       <c r="I73" s="14">
         <v>5</v>
       </c>
       <c r="J73" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K73" s="35">
+      <c r="K73" s="23">
         <v>42548</v>
       </c>
-      <c r="L73" s="32"/>
+      <c r="L73" s="20"/>
     </row>
     <row r="74" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="23"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="45"/>
       <c r="G74" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="H74" s="31"/>
+      <c r="H74" s="49"/>
       <c r="I74" s="14">
         <v>5</v>
       </c>
       <c r="J74" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K74" s="35">
+      <c r="K74" s="23">
         <v>42548</v>
       </c>
-      <c r="L74" s="32"/>
+      <c r="L74" s="20"/>
     </row>
     <row r="75" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="20" t="s">
         <v>833</v>
       </c>
       <c r="B75" s="15" t="s">
@@ -20108,20 +20136,20 @@
       <c r="G75" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="H75" s="29"/>
+      <c r="H75" s="19"/>
       <c r="I75" s="14">
         <v>5</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K75" s="35">
+      <c r="K75" s="23">
         <v>42548</v>
       </c>
-      <c r="L75" s="32"/>
+      <c r="L75" s="20"/>
     </row>
     <row r="76" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="20" t="s">
         <v>834</v>
       </c>
       <c r="B76" s="15" t="s">
@@ -20142,20 +20170,20 @@
       <c r="G76" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="H76" s="29"/>
+      <c r="H76" s="19"/>
       <c r="I76" s="14">
         <v>5</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K76" s="35">
+      <c r="K76" s="23">
         <v>42548</v>
       </c>
-      <c r="L76" s="32"/>
+      <c r="L76" s="20"/>
     </row>
     <row r="77" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="20" t="s">
         <v>835</v>
       </c>
       <c r="B77" s="15" t="s">
@@ -20176,20 +20204,20 @@
       <c r="G77" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="H77" s="29"/>
+      <c r="H77" s="19"/>
       <c r="I77" s="14">
         <v>5</v>
       </c>
       <c r="J77" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K77" s="35">
+      <c r="K77" s="23">
         <v>42548</v>
       </c>
-      <c r="L77" s="32"/>
+      <c r="L77" s="20"/>
     </row>
     <row r="78" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="20" t="s">
         <v>836</v>
       </c>
       <c r="B78" s="15" t="s">
@@ -20210,20 +20238,20 @@
       <c r="G78" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="H78" s="29"/>
+      <c r="H78" s="19"/>
       <c r="I78" s="14">
         <v>5</v>
       </c>
       <c r="J78" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K78" s="35">
+      <c r="K78" s="23">
         <v>42548</v>
       </c>
-      <c r="L78" s="32"/>
+      <c r="L78" s="20"/>
     </row>
     <row r="79" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="20" t="s">
         <v>837</v>
       </c>
       <c r="B79" s="15" t="s">
@@ -20244,20 +20272,20 @@
       <c r="G79" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="H79" s="29"/>
+      <c r="H79" s="19"/>
       <c r="I79" s="14">
         <v>5</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K79" s="35">
+      <c r="K79" s="23">
         <v>42548</v>
       </c>
-      <c r="L79" s="32"/>
+      <c r="L79" s="20"/>
     </row>
     <row r="80" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="20" t="s">
         <v>838</v>
       </c>
       <c r="B80" s="15" t="s">
@@ -20278,20 +20306,20 @@
       <c r="G80" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="H80" s="29"/>
+      <c r="H80" s="19"/>
       <c r="I80" s="14">
         <v>5</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K80" s="35">
+      <c r="K80" s="23">
         <v>42548</v>
       </c>
-      <c r="L80" s="32"/>
+      <c r="L80" s="20"/>
     </row>
     <row r="81" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="20" t="s">
         <v>839</v>
       </c>
       <c r="B81" s="15" t="s">
@@ -20312,20 +20340,20 @@
       <c r="G81" s="14" t="s">
         <v>730</v>
       </c>
-      <c r="H81" s="29"/>
+      <c r="H81" s="19"/>
       <c r="I81" s="14">
         <v>5</v>
       </c>
       <c r="J81" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K81" s="35">
+      <c r="K81" s="23">
         <v>42548</v>
       </c>
-      <c r="L81" s="32"/>
+      <c r="L81" s="20"/>
     </row>
     <row r="82" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="20" t="s">
         <v>840</v>
       </c>
       <c r="B82" s="15" t="s">
@@ -20346,20 +20374,20 @@
       <c r="G82" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="H82" s="29"/>
+      <c r="H82" s="19"/>
       <c r="I82" s="14">
         <v>5</v>
       </c>
       <c r="J82" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K82" s="35">
+      <c r="K82" s="23">
         <v>42548</v>
       </c>
-      <c r="L82" s="32"/>
+      <c r="L82" s="20"/>
     </row>
     <row r="83" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="20" t="s">
         <v>841</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -20380,20 +20408,20 @@
       <c r="G83" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="H83" s="29"/>
+      <c r="H83" s="19"/>
       <c r="I83" s="14">
         <v>5</v>
       </c>
       <c r="J83" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K83" s="35">
+      <c r="K83" s="23">
         <v>42548</v>
       </c>
-      <c r="L83" s="32"/>
+      <c r="L83" s="20"/>
     </row>
     <row r="84" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="20" t="s">
         <v>842</v>
       </c>
       <c r="B84" s="15" t="s">
@@ -20414,20 +20442,20 @@
       <c r="G84" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="H84" s="29"/>
+      <c r="H84" s="19"/>
       <c r="I84" s="14">
         <v>5</v>
       </c>
       <c r="J84" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K84" s="35">
+      <c r="K84" s="23">
         <v>42548</v>
       </c>
-      <c r="L84" s="32"/>
+      <c r="L84" s="20"/>
     </row>
     <row r="85" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="20" t="s">
         <v>843</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -20448,20 +20476,20 @@
       <c r="G85" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="H85" s="29"/>
+      <c r="H85" s="19"/>
       <c r="I85" s="14">
         <v>5</v>
       </c>
       <c r="J85" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K85" s="35">
+      <c r="K85" s="23">
         <v>42548</v>
       </c>
-      <c r="L85" s="32"/>
+      <c r="L85" s="20"/>
     </row>
     <row r="86" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="20" t="s">
         <v>844</v>
       </c>
       <c r="B86" s="15" t="s">
@@ -20482,20 +20510,20 @@
       <c r="G86" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="H86" s="29"/>
+      <c r="H86" s="19"/>
       <c r="I86" s="14">
         <v>5</v>
       </c>
       <c r="J86" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K86" s="35">
+      <c r="K86" s="23">
         <v>42548</v>
       </c>
-      <c r="L86" s="32"/>
+      <c r="L86" s="20"/>
     </row>
     <row r="87" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="20" t="s">
         <v>845</v>
       </c>
       <c r="B87" s="15" t="s">
@@ -20516,20 +20544,20 @@
       <c r="G87" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="H87" s="29"/>
+      <c r="H87" s="19"/>
       <c r="I87" s="14">
         <v>5</v>
       </c>
       <c r="J87" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K87" s="35">
+      <c r="K87" s="23">
         <v>42548</v>
       </c>
-      <c r="L87" s="32"/>
+      <c r="L87" s="20"/>
     </row>
     <row r="88" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="20" t="s">
         <v>846</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -20550,20 +20578,20 @@
       <c r="G88" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="H88" s="29"/>
+      <c r="H88" s="19"/>
       <c r="I88" s="14">
         <v>5</v>
       </c>
       <c r="J88" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K88" s="35">
+      <c r="K88" s="23">
         <v>42548</v>
       </c>
-      <c r="L88" s="32"/>
+      <c r="L88" s="20"/>
     </row>
     <row r="89" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="20" t="s">
         <v>847</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -20584,20 +20612,20 @@
       <c r="G89" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="H89" s="29"/>
+      <c r="H89" s="19"/>
       <c r="I89" s="14">
         <v>5</v>
       </c>
       <c r="J89" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K89" s="35">
+      <c r="K89" s="23">
         <v>42548</v>
       </c>
-      <c r="L89" s="32"/>
+      <c r="L89" s="20"/>
     </row>
     <row r="90" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="20" t="s">
         <v>848</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -20618,20 +20646,20 @@
       <c r="G90" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="H90" s="29"/>
+      <c r="H90" s="19"/>
       <c r="I90" s="14">
         <v>5</v>
       </c>
       <c r="J90" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K90" s="35">
+      <c r="K90" s="23">
         <v>42548</v>
       </c>
-      <c r="L90" s="32"/>
+      <c r="L90" s="20"/>
     </row>
     <row r="91" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="20" t="s">
         <v>849</v>
       </c>
       <c r="B91" s="15" t="s">
@@ -20652,20 +20680,20 @@
       <c r="G91" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="H91" s="29"/>
+      <c r="H91" s="19"/>
       <c r="I91" s="14">
         <v>5</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K91" s="35">
+      <c r="K91" s="23">
         <v>42548</v>
       </c>
-      <c r="L91" s="32"/>
+      <c r="L91" s="20"/>
     </row>
     <row r="92" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="20" t="s">
         <v>850</v>
       </c>
       <c r="B92" s="15" t="s">
@@ -20686,20 +20714,20 @@
       <c r="G92" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="H92" s="29"/>
+      <c r="H92" s="19"/>
       <c r="I92" s="14">
         <v>5</v>
       </c>
       <c r="J92" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K92" s="35">
+      <c r="K92" s="23">
         <v>42548</v>
       </c>
-      <c r="L92" s="32"/>
+      <c r="L92" s="20"/>
     </row>
     <row r="93" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="20" t="s">
         <v>851</v>
       </c>
       <c r="B93" s="15" t="s">
@@ -20720,20 +20748,20 @@
       <c r="G93" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="H93" s="29"/>
+      <c r="H93" s="19"/>
       <c r="I93" s="14">
         <v>5</v>
       </c>
       <c r="J93" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K93" s="35">
+      <c r="K93" s="23">
         <v>42548</v>
       </c>
-      <c r="L93" s="32"/>
+      <c r="L93" s="20"/>
     </row>
     <row r="94" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="20" t="s">
         <v>852</v>
       </c>
       <c r="B94" s="15" t="s">
@@ -20754,25 +20782,26 @@
       <c r="G94" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="H94" s="29"/>
+      <c r="H94" s="19"/>
       <c r="I94" s="14">
         <v>5</v>
       </c>
       <c r="J94" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="K94" s="35">
+      <c r="K94" s="23">
         <v>42548</v>
       </c>
-      <c r="L94" s="32"/>
+      <c r="L94" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H73:H74"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:C53"/>
@@ -20780,12 +20809,11 @@
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20948,4 +20976,73 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>871</v>
+      </c>
+      <c r="E3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>